--- a/gym_back/files/12_2024.xlsx
+++ b/gym_back/files/12_2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,130 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.9</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.8</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.7</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>GYM</t>
         </is>
@@ -559,72 +584,93 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Разгибание голени в тренажере сидя</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30 кг с повышением</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>30</v>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -645,10 +691,8 @@
       <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Декабрь</t>
-        </is>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -656,47 +700,64 @@
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Декабрь</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Фронтальные приседания с гантелью на груди стоя</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-18 кг с повышением</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Глубоко/Контроль коленей</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -717,58 +778,81 @@
       <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Жим платформы ногами лежа</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>75 кг с повышением</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Глубоко/Контроль коленей</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -789,62 +873,77 @@
       <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t xml:space="preserve">Подьемы на носки стоя </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>4х15</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Полная амплитуда</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -865,58 +964,73 @@
       <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>90  секунд</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -937,62 +1051,77 @@
       <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Жим гантелями лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-14 кг с повышением</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1013,62 +1142,77 @@
       <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1089,78 +1233,93 @@
       <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1181,70 +1340,85 @@
       <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1265,58 +1439,73 @@
       <c r="F11" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>30-35 кг с повышением</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Контролирй наклон туловища, таз и поясницу/Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1337,62 +1526,77 @@
       <c r="F12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1413,62 +1617,77 @@
       <c r="F13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>7 плиток с повышением</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1489,58 +1708,73 @@
       <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>с/в/Вес</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1561,62 +1795,77 @@
       <c r="F15" t="n">
         <v>13</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Блок-трицепс</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>5 плиток с повышением</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Контроль локтей!</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1637,62 +1886,77 @@
       <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>20 кг</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1713,78 +1977,93 @@
       <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1805,62 +2084,77 @@
       <c r="F18" t="n">
         <v>16</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Сгибание голени в тренажере лежа</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1881,58 +2175,73 @@
       <c r="F19" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Тяга штанги на согнутых ногах стоя (ягодицы)</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>40 кг с повышением</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>Держи поясницу прогнутой/работай через таз/Опускай чуть ниже колена</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1953,58 +2262,73 @@
       <c r="F20" t="n">
         <v>18</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Работай через таз/Контроль поясницы</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2025,62 +2349,77 @@
       <c r="F21" t="n">
         <v>19</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Подьемы на носки (сидя)</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>4х15</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>Полная амплитуда</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="Z21" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2101,58 +2440,73 @@
       <c r="F22" t="n">
         <v>20</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2173,62 +2527,77 @@
       <c r="F23" t="n">
         <v>21</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Жим гантелей лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>12-14 кг с повышением</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2249,62 +2618,77 @@
       <c r="F24" t="n">
         <v>22</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
         <v>3</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Обратные отжимания от скамьи</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>Спиной к скамье, руки чуть шире плеч/Туловище перемещается вверх вниз, локти вдоль туловища</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="Z24" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2325,78 +2709,93 @@
       <c r="F25" t="n">
         <v>23</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
         <v>3</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="Y25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2417,82 +2816,97 @@
       <c r="F26" t="n">
         <v>24</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="Z26" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2513,60 +2927,75 @@
       <c r="F27" t="n">
         <v>25</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="M27" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>Контролирй наклон туловища, таз и поясницу/Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P27" t="n">
+      <c r="U27" t="n">
         <v>20</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
@@ -2591,58 +3020,73 @@
       <c r="F28" t="n">
         <v>26</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>26</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="M28" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>Обратных хват чуть шире плеч</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2663,62 +3107,77 @@
       <c r="F29" t="n">
         <v>27</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="M29" t="n">
         <v>2</v>
       </c>
-      <c r="I29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Вертильная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>20 кг с повышением</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2739,62 +3198,77 @@
       <c r="F30" t="n">
         <v>28</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28</v>
+      </c>
+      <c r="J30" t="n">
+        <v>28</v>
+      </c>
+      <c r="K30" t="n">
+        <v>28</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="M30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди средним хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>6-7 плиток с повышением</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2815,62 +3289,77 @@
       <c r="F31" t="n">
         <v>29</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="M31" t="n">
         <v>2</v>
       </c>
-      <c r="I31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="Z31" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2891,62 +3380,77 @@
       <c r="F32" t="n">
         <v>30</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
+        <v>30</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="M32" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>20 кг</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2967,62 +3471,77 @@
       <c r="F33" t="n">
         <v>31</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="M33" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Отжимания от пола (узко)</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>Локти вдоль туловища</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="Z33" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3043,78 +3562,93 @@
       <c r="F34" t="n">
         <v>32</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32</v>
+      </c>
+      <c r="K34" t="n">
+        <v>32</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="M34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3135,58 +3669,73 @@
       <c r="F35" t="n">
         <v>33</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>33</v>
+      </c>
+      <c r="K35" t="n">
+        <v>33</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="M35" t="n">
         <v>2</v>
       </c>
-      <c r="I35" t="n">
+      <c r="N35" t="n">
         <v>2</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Приседания со штангой на спине</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Осваиваем технику!/Фиксация грифа на трапеции!/Садись через колени, таз опускается вниз! Пятки прижаты</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3207,62 +3756,77 @@
       <c r="F36" t="n">
         <v>34</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>34</v>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>34</v>
+      </c>
+      <c r="K36" t="n">
+        <v>34</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="M36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
+      <c r="N36" t="n">
         <v>2</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Гакк-приседания (широко)</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>20 кг с повышением</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>Глубоко/Контроль коленей</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3283,58 +3847,73 @@
       <c r="F37" t="n">
         <v>35</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="M37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
+      <c r="N37" t="n">
         <v>2</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>Работай через таз/Контроль поясницы</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3355,62 +3934,77 @@
       <c r="F38" t="n">
         <v>36</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="M38" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="n">
+      <c r="N38" t="n">
         <v>2</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>Сгибание голени в тренажере лежа</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3431,62 +4025,77 @@
       <c r="F39" t="n">
         <v>37</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>37</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>37</v>
+      </c>
+      <c r="K39" t="n">
+        <v>37</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="M39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
+      <c r="N39" t="n">
         <v>2</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>35-40 кг с повышением</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>90  секунд</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3507,62 +4116,77 @@
       <c r="F40" t="n">
         <v>38</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>38</v>
+      </c>
+      <c r="H40" t="n">
+        <v>38</v>
+      </c>
+      <c r="I40" t="n">
+        <v>38</v>
+      </c>
+      <c r="J40" t="n">
+        <v>38</v>
+      </c>
+      <c r="K40" t="n">
+        <v>38</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="M40" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="n">
+      <c r="N40" t="n">
         <v>2</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>30-35 кг с повышением</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3583,62 +4207,77 @@
       <c r="F41" t="n">
         <v>39</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>39</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39</v>
+      </c>
+      <c r="J41" t="n">
+        <v>39</v>
+      </c>
+      <c r="K41" t="n">
+        <v>39</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="M41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
+      <c r="N41" t="n">
         <v>2</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>Средняя/Широкая постановка рук</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3659,78 +4298,93 @@
       <c r="F42" t="n">
         <v>40</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" t="n">
+        <v>40</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="M42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
+      <c r="N42" t="n">
         <v>2</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="Y42" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="Z42" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3751,58 +4405,73 @@
       <c r="F43" t="n">
         <v>41</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>41</v>
+      </c>
+      <c r="H43" t="n">
+        <v>41</v>
+      </c>
+      <c r="I43" t="n">
+        <v>41</v>
+      </c>
+      <c r="J43" t="n">
+        <v>41</v>
+      </c>
+      <c r="K43" t="n">
+        <v>41</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
+      <c r="N43" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>5х6</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>Контролирй наклон туловища, таз и поясницу/Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3823,58 +4492,73 @@
       <c r="F44" t="n">
         <v>42</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>42</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42</v>
+      </c>
+      <c r="K44" t="n">
+        <v>42</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="n">
         <v>2</v>
       </c>
-      <c r="I44" t="n">
+      <c r="N44" t="n">
         <v>3</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3895,62 +4579,77 @@
       <c r="F45" t="n">
         <v>43</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>43</v>
+      </c>
+      <c r="H45" t="n">
+        <v>43</v>
+      </c>
+      <c r="I45" t="n">
+        <v>43</v>
+      </c>
+      <c r="J45" t="n">
+        <v>43</v>
+      </c>
+      <c r="K45" t="n">
+        <v>43</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="M45" t="n">
         <v>2</v>
       </c>
-      <c r="I45" t="n">
+      <c r="N45" t="n">
         <v>3</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="Z45" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3971,62 +4670,77 @@
       <c r="F46" t="n">
         <v>44</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>44</v>
+      </c>
+      <c r="H46" t="n">
+        <v>44</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" t="n">
+        <v>44</v>
+      </c>
+      <c r="K46" t="n">
+        <v>44</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="M46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
+      <c r="N46" t="n">
         <v>3</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Горизонтальная тяга нижнего блока к поясу узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>5-6 плиток с повышением</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4047,62 +4761,77 @@
       <c r="F47" t="n">
         <v>45</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>45</v>
+      </c>
+      <c r="K47" t="n">
+        <v>45</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="M47" t="n">
         <v>2</v>
       </c>
-      <c r="I47" t="n">
+      <c r="N47" t="n">
         <v>3</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Французский жим штанги лежа за голову (хват снизу чуть уже или на ширине плеч)</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>4х6</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>Контроль локтей/Исходное положение лежа, штанга вытянута перпендикулярно туловищу, сгибаешь руки в локтевых сутсавах, опуская штангу за голову к темечку/Локти немного расходятся в сторону, параллельны друг другу</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4123,62 +4852,77 @@
       <c r="F48" t="n">
         <v>46</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>46</v>
+      </c>
+      <c r="H48" t="n">
+        <v>46</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
+        <v>46</v>
+      </c>
+      <c r="K48" t="n">
+        <v>46</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="M48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
+      <c r="N48" t="n">
         <v>3</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>20 кг</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4199,62 +4943,77 @@
       <c r="F49" t="n">
         <v>47</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" t="n">
+        <v>47</v>
+      </c>
+      <c r="H49" t="n">
+        <v>47</v>
+      </c>
+      <c r="I49" t="n">
+        <v>47</v>
+      </c>
+      <c r="J49" t="n">
+        <v>47</v>
+      </c>
+      <c r="K49" t="n">
+        <v>47</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="M49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="n">
+      <c r="N49" t="n">
         <v>3</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Отжимания от пола (узко)</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Локти вдоль туловища</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4275,78 +5034,93 @@
       <c r="F50" t="n">
         <v>48</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>48</v>
+      </c>
+      <c r="H50" t="n">
+        <v>48</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>48</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
+      <c r="N50" t="n">
         <v>3</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>6-8/85-80%</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="W50" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="Y50" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="Z50" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4367,82 +5141,97 @@
       <c r="F51" t="n">
         <v>49</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" t="n">
+        <v>49</v>
+      </c>
+      <c r="H51" t="n">
+        <v>49</v>
+      </c>
+      <c r="I51" t="n">
+        <v>49</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="W51" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4463,66 +5252,81 @@
       <c r="F52" t="n">
         <v>50</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>50</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
+        <v>50</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="M52" t="n">
         <v>3</v>
       </c>
-      <c r="I52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Разгибание голени в тренажере сидя</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>30 кг с повышением</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="P52" t="n">
+      <c r="U52" t="n">
         <v>12</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="V52" t="n">
         <v>12</v>
       </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="Z52" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4543,58 +5347,73 @@
       <c r="F53" t="n">
         <v>51</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>51</v>
+      </c>
+      <c r="H53" t="n">
+        <v>51</v>
+      </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>51</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="M53" t="n">
         <v>3</v>
       </c>
-      <c r="I53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>Фронтальные приседания с гантелью на груди стоя</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>16-18 кг с повышением</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>Глубоко/Контроль коленей</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4615,58 +5434,73 @@
       <c r="F54" t="n">
         <v>52</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" t="n">
+        <v>52</v>
+      </c>
+      <c r="H54" t="n">
+        <v>52</v>
+      </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" t="n">
+        <v>52</v>
+      </c>
+      <c r="K54" t="n">
+        <v>52</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="M54" t="n">
         <v>3</v>
       </c>
-      <c r="I54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>Жим платформы ногами лежа</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>5х10</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>75 кг с повышением</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>Глубоко/Контроль коленей</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4687,62 +5521,77 @@
       <c r="F55" t="n">
         <v>53</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>53</v>
+      </c>
+      <c r="H55" t="n">
+        <v>53</v>
+      </c>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>53</v>
+      </c>
+      <c r="K55" t="n">
+        <v>53</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="M55" t="n">
         <v>3</v>
       </c>
-      <c r="I55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t xml:space="preserve">Подьемы на носки стоя </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>4х15</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>Полная амплитуда</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr">
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="Z55" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4763,58 +5612,73 @@
       <c r="F56" t="n">
         <v>54</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" t="n">
+        <v>54</v>
+      </c>
+      <c r="H56" t="n">
+        <v>54</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54</v>
+      </c>
+      <c r="J56" t="n">
+        <v>54</v>
+      </c>
+      <c r="K56" t="n">
+        <v>54</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="M56" t="n">
         <v>3</v>
       </c>
-      <c r="I56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
         <is>
           <t>90  секунд</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4835,62 +5699,77 @@
       <c r="F57" t="n">
         <v>55</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" t="n">
+        <v>55</v>
+      </c>
+      <c r="H57" t="n">
+        <v>55</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>55</v>
+      </c>
+      <c r="K57" t="n">
+        <v>55</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="M57" t="n">
         <v>3</v>
       </c>
-      <c r="I57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>Жим гантелями лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>12-14 кг с повышением</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="Z57" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4911,62 +5790,77 @@
       <c r="F58" t="n">
         <v>56</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>56</v>
+      </c>
+      <c r="H58" t="n">
+        <v>56</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+      <c r="J58" t="n">
+        <v>56</v>
+      </c>
+      <c r="K58" t="n">
+        <v>56</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="M58" t="n">
         <v>3</v>
       </c>
-      <c r="I58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="Z58" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4987,78 +5881,93 @@
       <c r="F59" t="n">
         <v>57</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>57</v>
+      </c>
+      <c r="H59" t="n">
+        <v>57</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>57</v>
+      </c>
+      <c r="K59" t="n">
+        <v>57</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="M59" t="n">
         <v>3</v>
       </c>
-      <c r="I59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>Ноги (квадрицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="W59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="Y59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="Z59" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5079,58 +5988,73 @@
       <c r="F60" t="n">
         <v>58</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>58</v>
+      </c>
+      <c r="H60" t="n">
+        <v>58</v>
+      </c>
+      <c r="I60" t="n">
+        <v>58</v>
+      </c>
+      <c r="J60" t="n">
+        <v>58</v>
+      </c>
+      <c r="K60" t="n">
+        <v>58</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="M60" t="n">
         <v>3</v>
       </c>
-      <c r="I60" t="n">
+      <c r="N60" t="n">
         <v>2</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>5х10</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5151,58 +6075,73 @@
       <c r="F61" t="n">
         <v>59</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>59</v>
+      </c>
+      <c r="H61" t="n">
+        <v>59</v>
+      </c>
+      <c r="I61" t="n">
+        <v>59</v>
+      </c>
+      <c r="J61" t="n">
+        <v>59</v>
+      </c>
+      <c r="K61" t="n">
+        <v>59</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="M61" t="n">
         <v>3</v>
       </c>
-      <c r="I61" t="n">
+      <c r="N61" t="n">
         <v>2</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>30-35 кг с повышением</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>Контролирй наклон туловища, таз и поясницу/Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5223,62 +6162,77 @@
       <c r="F62" t="n">
         <v>60</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" t="n">
+        <v>60</v>
+      </c>
+      <c r="H62" t="n">
+        <v>60</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60</v>
+      </c>
+      <c r="J62" t="n">
+        <v>60</v>
+      </c>
+      <c r="K62" t="n">
+        <v>60</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="M62" t="n">
         <v>3</v>
       </c>
-      <c r="I62" t="n">
+      <c r="N62" t="n">
         <v>2</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr">
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="Z62" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5299,62 +6253,77 @@
       <c r="F63" t="n">
         <v>61</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>61</v>
+      </c>
+      <c r="H63" t="n">
+        <v>61</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+      <c r="J63" t="n">
+        <v>61</v>
+      </c>
+      <c r="K63" t="n">
+        <v>61</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="M63" t="n">
         <v>3</v>
       </c>
-      <c r="I63" t="n">
+      <c r="N63" t="n">
         <v>2</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>7 плиток с повышением</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr">
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="Z63" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5375,58 +6344,73 @@
       <c r="F64" t="n">
         <v>62</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>62</v>
+      </c>
+      <c r="H64" t="n">
+        <v>62</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>62</v>
+      </c>
+      <c r="K64" t="n">
+        <v>62</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="M64" t="n">
         <v>3</v>
       </c>
-      <c r="I64" t="n">
+      <c r="N64" t="n">
         <v>2</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>с/в/Вес</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5447,62 +6431,77 @@
       <c r="F65" t="n">
         <v>63</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>63</v>
+      </c>
+      <c r="H65" t="n">
+        <v>63</v>
+      </c>
+      <c r="I65" t="n">
+        <v>63</v>
+      </c>
+      <c r="J65" t="n">
+        <v>63</v>
+      </c>
+      <c r="K65" t="n">
+        <v>63</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="M65" t="n">
         <v>3</v>
       </c>
-      <c r="I65" t="n">
+      <c r="N65" t="n">
         <v>2</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>Блок-трицепс</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>5 плиток с повышением</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>Контроль локтей!</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr">
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="Z65" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5523,62 +6522,77 @@
       <c r="F66" t="n">
         <v>64</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>64</v>
+      </c>
+      <c r="H66" t="n">
+        <v>64</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64</v>
+      </c>
+      <c r="K66" t="n">
+        <v>64</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="M66" t="n">
         <v>3</v>
       </c>
-      <c r="I66" t="n">
+      <c r="N66" t="n">
         <v>2</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>20 кг</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="Z66" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5599,78 +6613,93 @@
       <c r="F67" t="n">
         <v>65</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>65</v>
+      </c>
+      <c r="H67" t="n">
+        <v>65</v>
+      </c>
+      <c r="I67" t="n">
+        <v>65</v>
+      </c>
+      <c r="J67" t="n">
+        <v>65</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="M67" t="n">
         <v>3</v>
       </c>
-      <c r="I67" t="n">
+      <c r="N67" t="n">
         <v>2</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="W67" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="Y67" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="Z67" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5691,62 +6720,77 @@
       <c r="F68" t="n">
         <v>66</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="n">
+        <v>66</v>
+      </c>
+      <c r="H68" t="n">
+        <v>66</v>
+      </c>
+      <c r="I68" t="n">
+        <v>66</v>
+      </c>
+      <c r="J68" t="n">
+        <v>66</v>
+      </c>
+      <c r="K68" t="n">
+        <v>66</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="M68" t="n">
         <v>3</v>
       </c>
-      <c r="I68" t="n">
+      <c r="N68" t="n">
         <v>3</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>Сгибание голени в тренажере лежа</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="Z68" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5767,58 +6811,73 @@
       <c r="F69" t="n">
         <v>67</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>67</v>
+      </c>
+      <c r="H69" t="n">
+        <v>67</v>
+      </c>
+      <c r="I69" t="n">
+        <v>67</v>
+      </c>
+      <c r="J69" t="n">
+        <v>67</v>
+      </c>
+      <c r="K69" t="n">
+        <v>67</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="M69" t="n">
         <v>3</v>
       </c>
-      <c r="I69" t="n">
+      <c r="N69" t="n">
         <v>3</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>Тяга штанги на согнутых ногах стоя (ягодицы)</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>40 кг с повышением</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>Держи поясницу прогнутой/работай через таз/Опускай чуть ниже колена</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5839,58 +6898,73 @@
       <c r="F70" t="n">
         <v>68</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>68</v>
+      </c>
+      <c r="H70" t="n">
+        <v>68</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68</v>
+      </c>
+      <c r="J70" t="n">
+        <v>68</v>
+      </c>
+      <c r="K70" t="n">
+        <v>68</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="M70" t="n">
         <v>3</v>
       </c>
-      <c r="I70" t="n">
+      <c r="N70" t="n">
         <v>3</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>5х10</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>Работай через таз/Контроль поясницы</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5911,62 +6985,77 @@
       <c r="F71" t="n">
         <v>69</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>69</v>
+      </c>
+      <c r="H71" t="n">
+        <v>69</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69</v>
+      </c>
+      <c r="J71" t="n">
+        <v>69</v>
+      </c>
+      <c r="K71" t="n">
+        <v>69</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="M71" t="n">
         <v>3</v>
       </c>
-      <c r="I71" t="n">
+      <c r="N71" t="n">
         <v>3</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>Подьемы на носки (сидя)</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>4х15</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>Полная амплитуда</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr">
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="Z71" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5987,58 +7076,73 @@
       <c r="F72" t="n">
         <v>70</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>70</v>
+      </c>
+      <c r="H72" t="n">
+        <v>70</v>
+      </c>
+      <c r="I72" t="n">
+        <v>70</v>
+      </c>
+      <c r="J72" t="n">
+        <v>70</v>
+      </c>
+      <c r="K72" t="n">
+        <v>70</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="M72" t="n">
         <v>3</v>
       </c>
-      <c r="I72" t="n">
+      <c r="N72" t="n">
         <v>3</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6059,62 +7163,77 @@
       <c r="F73" t="n">
         <v>71</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>71</v>
+      </c>
+      <c r="H73" t="n">
+        <v>71</v>
+      </c>
+      <c r="I73" t="n">
+        <v>71</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="n">
+        <v>71</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="M73" t="n">
         <v>3</v>
       </c>
-      <c r="I73" t="n">
+      <c r="N73" t="n">
         <v>3</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>Жим гантелей лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>12-14 кг с повышением</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr">
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="Z73" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6135,62 +7254,77 @@
       <c r="F74" t="n">
         <v>72</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>72</v>
+      </c>
+      <c r="H74" t="n">
+        <v>72</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+      <c r="J74" t="n">
+        <v>72</v>
+      </c>
+      <c r="K74" t="n">
+        <v>72</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H74" t="n">
+      <c r="M74" t="n">
         <v>3</v>
       </c>
-      <c r="I74" t="n">
+      <c r="N74" t="n">
         <v>3</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>Обратные отжимания от скамьи</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>Спиной к скамье, руки чуть шире плеч/Туловище перемещается вверх вниз, локти вдоль туловища</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="Z74" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6211,78 +7345,93 @@
       <c r="F75" t="n">
         <v>73</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" t="n">
+        <v>73</v>
+      </c>
+      <c r="H75" t="n">
+        <v>73</v>
+      </c>
+      <c r="I75" t="n">
+        <v>73</v>
+      </c>
+      <c r="J75" t="n">
+        <v>73</v>
+      </c>
+      <c r="K75" t="n">
+        <v>73</v>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="M75" t="n">
         <v>3</v>
       </c>
-      <c r="I75" t="n">
+      <c r="N75" t="n">
         <v>3</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>Ноги (ЗПБ/Бицепс)/ Грудь</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="W75" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="Y75" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="Z75" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6303,82 +7452,97 @@
       <c r="F76" t="n">
         <v>74</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" t="n">
+        <v>74</v>
+      </c>
+      <c r="H76" t="n">
+        <v>74</v>
+      </c>
+      <c r="I76" t="n">
+        <v>74</v>
+      </c>
+      <c r="J76" t="n">
+        <v>74</v>
+      </c>
+      <c r="K76" t="n">
+        <v>74</v>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>месяц</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>Неделя</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>Тренировка</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>Повторы/% от ПМ</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>Мышечные группы</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>Упражнения</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>Количество подходов/повторений</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>Рабочий вес</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>Комментарии</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>1 подход</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>2 подход</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="W76" t="inlineStr">
         <is>
           <t>3 подход</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="X76" t="inlineStr">
         <is>
           <t>4 подход</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="Y76" t="inlineStr">
         <is>
           <t>5 подход</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="Z76" t="inlineStr">
         <is>
           <t>Отдых между подходами</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6399,58 +7563,73 @@
       <c r="F77" t="n">
         <v>75</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" t="n">
+        <v>75</v>
+      </c>
+      <c r="H77" t="n">
+        <v>75</v>
+      </c>
+      <c r="I77" t="n">
+        <v>75</v>
+      </c>
+      <c r="J77" t="n">
+        <v>75</v>
+      </c>
+      <c r="K77" t="n">
+        <v>75</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H77" t="n">
+      <c r="M77" t="n">
         <v>4</v>
       </c>
-      <c r="I77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>Контролирй наклон туловища, таз и поясницу/Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6471,58 +7650,73 @@
       <c r="F78" t="n">
         <v>76</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>76</v>
+      </c>
+      <c r="H78" t="n">
+        <v>76</v>
+      </c>
+      <c r="I78" t="n">
+        <v>76</v>
+      </c>
+      <c r="J78" t="n">
+        <v>76</v>
+      </c>
+      <c r="K78" t="n">
+        <v>76</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="M78" t="n">
         <v>4</v>
       </c>
-      <c r="I78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>Обратных хват чуть шире плеч</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6543,62 +7737,77 @@
       <c r="F79" t="n">
         <v>77</v>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" t="n">
+        <v>77</v>
+      </c>
+      <c r="H79" t="n">
+        <v>77</v>
+      </c>
+      <c r="I79" t="n">
+        <v>77</v>
+      </c>
+      <c r="J79" t="n">
+        <v>77</v>
+      </c>
+      <c r="K79" t="n">
+        <v>77</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H79" t="n">
+      <c r="M79" t="n">
         <v>4</v>
       </c>
-      <c r="I79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>Вертильная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>20 кг с повышением</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr">
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="Z79" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6619,62 +7828,77 @@
       <c r="F80" t="n">
         <v>78</v>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>78</v>
+      </c>
+      <c r="H80" t="n">
+        <v>78</v>
+      </c>
+      <c r="I80" t="n">
+        <v>78</v>
+      </c>
+      <c r="J80" t="n">
+        <v>78</v>
+      </c>
+      <c r="K80" t="n">
+        <v>78</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="M80" t="n">
         <v>4</v>
       </c>
-      <c r="I80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>Вертикальная тяга верхнего блока к груди средним хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>6-7 плиток с повышением</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr">
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="Z80" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6695,62 +7919,77 @@
       <c r="F81" t="n">
         <v>79</v>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" t="n">
+        <v>79</v>
+      </c>
+      <c r="H81" t="n">
+        <v>79</v>
+      </c>
+      <c r="I81" t="n">
+        <v>79</v>
+      </c>
+      <c r="J81" t="n">
+        <v>79</v>
+      </c>
+      <c r="K81" t="n">
+        <v>79</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H81" t="n">
+      <c r="M81" t="n">
         <v>4</v>
       </c>
-      <c r="I81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>Отжимания (брусья)</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>Контролируй наклон туловища и локти</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr">
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr">
+      <c r="Z81" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6771,62 +8010,77 @@
       <c r="F82" t="n">
         <v>80</v>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" t="n">
+        <v>80</v>
+      </c>
+      <c r="H82" t="n">
+        <v>80</v>
+      </c>
+      <c r="I82" t="n">
+        <v>80</v>
+      </c>
+      <c r="J82" t="n">
+        <v>80</v>
+      </c>
+      <c r="K82" t="n">
+        <v>80</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H82" t="n">
+      <c r="M82" t="n">
         <v>4</v>
       </c>
-      <c r="I82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>20 кг</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="Z82" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6847,62 +8101,77 @@
       <c r="F83" t="n">
         <v>81</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" t="n">
+        <v>81</v>
+      </c>
+      <c r="H83" t="n">
+        <v>81</v>
+      </c>
+      <c r="I83" t="n">
+        <v>81</v>
+      </c>
+      <c r="J83" t="n">
+        <v>81</v>
+      </c>
+      <c r="K83" t="n">
+        <v>81</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H83" t="n">
+      <c r="M83" t="n">
         <v>4</v>
       </c>
-      <c r="I83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>Отжимания от пола (узко)</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>Локти вдоль туловища</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr">
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="Z83" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6923,78 +8192,93 @@
       <c r="F84" t="n">
         <v>82</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>82</v>
+      </c>
+      <c r="H84" t="n">
+        <v>82</v>
+      </c>
+      <c r="I84" t="n">
+        <v>82</v>
+      </c>
+      <c r="J84" t="n">
+        <v>82</v>
+      </c>
+      <c r="K84" t="n">
+        <v>82</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="M84" t="n">
         <v>4</v>
       </c>
-      <c r="I84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
+      <c r="V84" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="X84" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="Y84" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="Z84" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7015,58 +8299,73 @@
       <c r="F85" t="n">
         <v>83</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>83</v>
+      </c>
+      <c r="H85" t="n">
+        <v>83</v>
+      </c>
+      <c r="I85" t="n">
+        <v>83</v>
+      </c>
+      <c r="J85" t="n">
+        <v>83</v>
+      </c>
+      <c r="K85" t="n">
+        <v>83</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H85" t="n">
+      <c r="M85" t="n">
         <v>4</v>
       </c>
-      <c r="I85" t="n">
+      <c r="N85" t="n">
         <v>2</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>Приседания со штангой на спине</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>Осваиваем технику!/Фиксация грифа на трапеции!/Садись через колени, таз опускается вниз! Пятки прижаты</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7087,62 +8386,77 @@
       <c r="F86" t="n">
         <v>84</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>84</v>
+      </c>
+      <c r="H86" t="n">
+        <v>84</v>
+      </c>
+      <c r="I86" t="n">
+        <v>84</v>
+      </c>
+      <c r="J86" t="n">
+        <v>84</v>
+      </c>
+      <c r="K86" t="n">
+        <v>84</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H86" t="n">
+      <c r="M86" t="n">
         <v>4</v>
       </c>
-      <c r="I86" t="n">
+      <c r="N86" t="n">
         <v>2</v>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>Гакк-приседания (широко)</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>20 кг с повышением</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>Глубоко/Контроль коленей</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr">
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="Z86" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7163,58 +8477,73 @@
       <c r="F87" t="n">
         <v>85</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>85</v>
+      </c>
+      <c r="H87" t="n">
+        <v>85</v>
+      </c>
+      <c r="I87" t="n">
+        <v>85</v>
+      </c>
+      <c r="J87" t="n">
+        <v>85</v>
+      </c>
+      <c r="K87" t="n">
+        <v>85</v>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H87" t="n">
+      <c r="M87" t="n">
         <v>4</v>
       </c>
-      <c r="I87" t="n">
+      <c r="N87" t="n">
         <v>2</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>Разгибание туловища (ягодицы)</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>10 кг с повышением</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>Работай через таз/Контроль поясницы</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7235,62 +8564,77 @@
       <c r="F88" t="n">
         <v>86</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>86</v>
+      </c>
+      <c r="H88" t="n">
+        <v>86</v>
+      </c>
+      <c r="I88" t="n">
+        <v>86</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="n">
+        <v>86</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H88" t="n">
+      <c r="M88" t="n">
         <v>4</v>
       </c>
-      <c r="I88" t="n">
+      <c r="N88" t="n">
         <v>2</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>Сгибание голени в тренажере лежа</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>25-30 кг с повышением</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>Без рывков!</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr">
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="Z88" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7311,62 +8655,77 @@
       <c r="F89" t="n">
         <v>87</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" t="n">
+        <v>87</v>
+      </c>
+      <c r="H89" t="n">
+        <v>87</v>
+      </c>
+      <c r="I89" t="n">
+        <v>87</v>
+      </c>
+      <c r="J89" t="n">
+        <v>87</v>
+      </c>
+      <c r="K89" t="n">
+        <v>87</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H89" t="n">
+      <c r="M89" t="n">
         <v>4</v>
       </c>
-      <c r="I89" t="n">
+      <c r="N89" t="n">
         <v>2</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>Жиш штанги лежа на горизонтальной скамье</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>35-40 кг с повышением</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr">
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U89" t="inlineStr">
+      <c r="Z89" t="inlineStr">
         <is>
           <t>90  секунд</t>
         </is>
       </c>
-      <c r="V89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7387,62 +8746,77 @@
       <c r="F90" t="n">
         <v>88</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" t="n">
+        <v>88</v>
+      </c>
+      <c r="H90" t="n">
+        <v>88</v>
+      </c>
+      <c r="I90" t="n">
+        <v>88</v>
+      </c>
+      <c r="J90" t="n">
+        <v>88</v>
+      </c>
+      <c r="K90" t="n">
+        <v>88</v>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="M90" t="n">
         <v>4</v>
       </c>
-      <c r="I90" t="n">
+      <c r="N90" t="n">
         <v>2</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>Жим штанги лежа на наклонной скамье 30 градусов</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>30-35 кг с повышением</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>Контроль локтей и траектории</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr">
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U90" t="inlineStr">
+      <c r="Z90" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7463,62 +8837,77 @@
       <c r="F91" t="n">
         <v>89</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" t="n">
+        <v>89</v>
+      </c>
+      <c r="H91" t="n">
+        <v>89</v>
+      </c>
+      <c r="I91" t="n">
+        <v>89</v>
+      </c>
+      <c r="J91" t="n">
+        <v>89</v>
+      </c>
+      <c r="K91" t="n">
+        <v>89</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H91" t="n">
+      <c r="M91" t="n">
         <v>4</v>
       </c>
-      <c r="I91" t="n">
+      <c r="N91" t="n">
         <v>2</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>Отжимания от пола</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>Средняя/Широкая постановка рук</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr">
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U91" t="inlineStr">
+      <c r="Z91" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7539,78 +8928,93 @@
       <c r="F92" t="n">
         <v>90</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" t="n">
+        <v>90</v>
+      </c>
+      <c r="H92" t="n">
+        <v>90</v>
+      </c>
+      <c r="I92" t="n">
+        <v>90</v>
+      </c>
+      <c r="J92" t="n">
+        <v>90</v>
+      </c>
+      <c r="K92" t="n">
+        <v>90</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H92" t="n">
+      <c r="M92" t="n">
         <v>4</v>
       </c>
-      <c r="I92" t="n">
+      <c r="N92" t="n">
         <v>2</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>Ноги (общее)/Грудь</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="U92" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr">
+      <c r="V92" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="W92" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="X92" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="Y92" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr">
+      <c r="Z92" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7631,58 +9035,73 @@
       <c r="F93" t="n">
         <v>91</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G93" t="n">
+        <v>91</v>
+      </c>
+      <c r="H93" t="n">
+        <v>91</v>
+      </c>
+      <c r="I93" t="n">
+        <v>91</v>
+      </c>
+      <c r="J93" t="n">
+        <v>91</v>
+      </c>
+      <c r="K93" t="n">
+        <v>91</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H93" t="n">
+      <c r="M93" t="n">
         <v>4</v>
       </c>
-      <c r="I93" t="n">
+      <c r="N93" t="n">
         <v>3</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>Тяга штанги к поясу в наклоне стоя</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>5х8</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>35 кг с повышением</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>Контролирй наклон туловища, таз и поясницу/Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr">
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7703,58 +9122,73 @@
       <c r="F94" t="n">
         <v>92</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>92</v>
+      </c>
+      <c r="H94" t="n">
+        <v>92</v>
+      </c>
+      <c r="I94" t="n">
+        <v>92</v>
+      </c>
+      <c r="J94" t="n">
+        <v>92</v>
+      </c>
+      <c r="K94" t="n">
+        <v>92</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H94" t="n">
+      <c r="M94" t="n">
         <v>4</v>
       </c>
-      <c r="I94" t="n">
+      <c r="N94" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>Подтягивания (с резиной/без)</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>5х10</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>Средний хват</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr">
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
         <is>
           <t>90 секунд</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7775,62 +9209,77 @@
       <c r="F95" t="n">
         <v>93</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" t="n">
+        <v>93</v>
+      </c>
+      <c r="H95" t="n">
+        <v>93</v>
+      </c>
+      <c r="I95" t="n">
+        <v>93</v>
+      </c>
+      <c r="J95" t="n">
+        <v>93</v>
+      </c>
+      <c r="K95" t="n">
+        <v>93</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H95" t="n">
+      <c r="M95" t="n">
         <v>4</v>
       </c>
-      <c r="I95" t="n">
+      <c r="N95" t="n">
         <v>3</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>Горизонтальная рычажная тяга (узко)</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr">
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr">
+      <c r="Z95" t="inlineStr">
         <is>
           <t>75-90 секунд</t>
         </is>
       </c>
-      <c r="V95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7851,62 +9300,77 @@
       <c r="F96" t="n">
         <v>94</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" t="n">
+        <v>94</v>
+      </c>
+      <c r="H96" t="n">
+        <v>94</v>
+      </c>
+      <c r="I96" t="n">
+        <v>94</v>
+      </c>
+      <c r="J96" t="n">
+        <v>94</v>
+      </c>
+      <c r="K96" t="n">
+        <v>94</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="M96" t="n">
         <v>4</v>
       </c>
-      <c r="I96" t="n">
+      <c r="N96" t="n">
         <v>3</v>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>Горизонтальная тяга нижнего блока к поясу узким хватом в блочном тренажере сидя</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>5-6 плиток с повышением</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>Акцент на сведение лопаток и работу широчайших</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr">
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr">
+      <c r="Z96" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7927,62 +9391,77 @@
       <c r="F97" t="n">
         <v>95</v>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="n">
+        <v>95</v>
+      </c>
+      <c r="H97" t="n">
+        <v>95</v>
+      </c>
+      <c r="I97" t="n">
+        <v>95</v>
+      </c>
+      <c r="J97" t="n">
+        <v>95</v>
+      </c>
+      <c r="K97" t="n">
+        <v>95</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="M97" t="n">
         <v>4</v>
       </c>
-      <c r="I97" t="n">
+      <c r="N97" t="n">
         <v>3</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>Французский жим штанги лежа за голову (хват снизу чуть уже или на ширине плеч)</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="R97" t="inlineStr">
         <is>
           <t>4х8</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>15 кг с повышением</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>Контроль локтей/Исходное положение лежа, штанга вытянута перпендикулярно туловищу, сгибаешь руки в локтевых сутсавах, опуская штангу за голову к темечку/Локти немного расходятся в сторону, параллельны друг другу</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr">
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr">
+      <c r="Z97" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8003,62 +9482,77 @@
       <c r="F98" t="n">
         <v>96</v>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="n">
+        <v>96</v>
+      </c>
+      <c r="H98" t="n">
+        <v>96</v>
+      </c>
+      <c r="I98" t="n">
+        <v>96</v>
+      </c>
+      <c r="J98" t="n">
+        <v>96</v>
+      </c>
+      <c r="K98" t="n">
+        <v>96</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H98" t="n">
+      <c r="M98" t="n">
         <v>4</v>
       </c>
-      <c r="I98" t="n">
+      <c r="N98" t="n">
         <v>3</v>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>Сгибание со штангой на бицепс стоя</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>4х10</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>20 кг</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>Контроль локтей</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr">
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr">
+      <c r="Z98" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8079,62 +9573,77 @@
       <c r="F99" t="n">
         <v>97</v>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="n">
+        <v>97</v>
+      </c>
+      <c r="H99" t="n">
+        <v>97</v>
+      </c>
+      <c r="I99" t="n">
+        <v>97</v>
+      </c>
+      <c r="J99" t="n">
+        <v>97</v>
+      </c>
+      <c r="K99" t="n">
+        <v>97</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H99" t="n">
+      <c r="M99" t="n">
         <v>4</v>
       </c>
-      <c r="I99" t="n">
+      <c r="N99" t="n">
         <v>3</v>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>Отжимания от пола (узко)</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>4х12</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>Локти вдоль туловища</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr">
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U99" t="inlineStr">
+      <c r="Z99" t="inlineStr">
         <is>
           <t>75 секунд</t>
         </is>
       </c>
-      <c r="V99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8155,78 +9664,93 @@
       <c r="F100" t="n">
         <v>98</v>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="n">
+        <v>98</v>
+      </c>
+      <c r="H100" t="n">
+        <v>98</v>
+      </c>
+      <c r="I100" t="n">
+        <v>98</v>
+      </c>
+      <c r="J100" t="n">
+        <v>98</v>
+      </c>
+      <c r="K100" t="n">
+        <v>98</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="H100" t="n">
+      <c r="M100" t="n">
         <v>4</v>
       </c>
-      <c r="I100" t="n">
+      <c r="N100" t="n">
         <v>3</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>8-10/80-75%</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>Спина/Руки</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t xml:space="preserve">Прямые скручивания </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>4х20</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="U100" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr">
+      <c r="V100" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="X100" t="inlineStr">
         <is>
           <t>с/в</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="Y100" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr">
+      <c r="Z100" t="inlineStr">
         <is>
           <t>60 секунд</t>
         </is>
       </c>
-      <c r="V100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
